--- a/data/SDET11.xlsx
+++ b/data/SDET11.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AREA</t>
   </si>
@@ -40,16 +41,7 @@
     <t>AMEERPET</t>
   </si>
   <si>
-    <t>500050</t>
-  </si>
-  <si>
-    <t>500072</t>
-  </si>
-  <si>
-    <t>500077</t>
-  </si>
-  <si>
-    <t>500088</t>
+    <t>Pavan</t>
   </si>
 </sst>
 </file>
@@ -85,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,18 +359,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,36 +378,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>500050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>500072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>500077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>500088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/SDET11.xlsx
+++ b/data/SDET11.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P18"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>AREA</t>
   </si>
@@ -41,7 +41,28 @@
     <t>AMEERPET</t>
   </si>
   <si>
-    <t>Pavan</t>
+    <t>Harika</t>
+  </si>
+  <si>
+    <t>Hyd</t>
+  </si>
+  <si>
+    <t>Pravallika</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>456789</t>
   </si>
 </sst>
 </file>
@@ -77,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -417,15 +439,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
